--- a/data/trans_orig/P64B-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P64B-Clase-trans_orig.xlsx
@@ -4695,7 +4695,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
@@ -10502,7 +10502,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
@@ -16309,7 +16309,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
